--- a/model performance analysis results/model performance.xlsx
+++ b/model performance analysis results/model performance.xlsx
@@ -593,11 +593,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="126208409"/>
-        <c:axId val="1606164446"/>
+        <c:axId val="389307157"/>
+        <c:axId val="40651894"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126208409"/>
+        <c:axId val="389307157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -650,10 +650,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1606164446"/>
+        <c:crossAx val="40651894"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1606164446"/>
+        <c:axId val="40651894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126208409"/>
+        <c:crossAx val="389307157"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -887,11 +887,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="550020727"/>
-        <c:axId val="1697094026"/>
+        <c:axId val="1811328366"/>
+        <c:axId val="185435831"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="550020727"/>
+        <c:axId val="1811328366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -944,10 +944,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697094026"/>
+        <c:crossAx val="185435831"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697094026"/>
+        <c:axId val="185435831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550020727"/>
+        <c:crossAx val="1811328366"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1144,11 +1144,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1241750094"/>
-        <c:axId val="12620070"/>
+        <c:axId val="1555948090"/>
+        <c:axId val="1519572373"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1241750094"/>
+        <c:axId val="1555948090"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -1201,10 +1201,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12620070"/>
+        <c:crossAx val="1519572373"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12620070"/>
+        <c:axId val="1519572373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241750094"/>
+        <c:crossAx val="1555948090"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1415,11 +1415,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="668865569"/>
-        <c:axId val="230232007"/>
+        <c:axId val="1533014551"/>
+        <c:axId val="2012904966"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="668865569"/>
+        <c:axId val="1533014551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,10 +1471,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230232007"/>
+        <c:crossAx val="2012904966"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230232007"/>
+        <c:axId val="2012904966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668865569"/>
+        <c:crossAx val="1533014551"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1705,11 +1705,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1010077926"/>
-        <c:axId val="1963435613"/>
+        <c:axId val="1298817320"/>
+        <c:axId val="1917014874"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1010077926"/>
+        <c:axId val="1298817320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,10 +1761,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963435613"/>
+        <c:crossAx val="1917014874"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963435613"/>
+        <c:axId val="1917014874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1839,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1010077926"/>
+        <c:crossAx val="1298817320"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1986,11 +1986,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1158518113"/>
-        <c:axId val="182733045"/>
+        <c:axId val="1981673069"/>
+        <c:axId val="769370138"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1158518113"/>
+        <c:axId val="1981673069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -2043,10 +2043,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182733045"/>
+        <c:crossAx val="769370138"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182733045"/>
+        <c:axId val="769370138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2110,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158518113"/>
+        <c:crossAx val="1981673069"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2238,11 +2238,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="423401084"/>
-        <c:axId val="1241189078"/>
+        <c:axId val="590986151"/>
+        <c:axId val="1690541902"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="423401084"/>
+        <c:axId val="590986151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -2295,10 +2295,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241189078"/>
+        <c:crossAx val="1690541902"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241189078"/>
+        <c:axId val="1690541902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423401084"/>
+        <c:crossAx val="590986151"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2503,11 +2503,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1847343263"/>
-        <c:axId val="1428045759"/>
+        <c:axId val="219754220"/>
+        <c:axId val="1884913013"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1847343263"/>
+        <c:axId val="219754220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,10 +2559,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1428045759"/>
+        <c:crossAx val="1884913013"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1428045759"/>
+        <c:axId val="1884913013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1847343263"/>
+        <c:crossAx val="219754220"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2763,11 +2763,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="866863223"/>
-        <c:axId val="1896413970"/>
+        <c:axId val="360368378"/>
+        <c:axId val="895573666"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="866863223"/>
+        <c:axId val="360368378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -2820,10 +2820,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896413970"/>
+        <c:crossAx val="895573666"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1896413970"/>
+        <c:axId val="895573666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="866863223"/>
+        <c:crossAx val="360368378"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3025,11 +3025,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="647400692"/>
-        <c:axId val="1982806304"/>
+        <c:axId val="311254528"/>
+        <c:axId val="1719500240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="647400692"/>
+        <c:axId val="311254528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -3082,10 +3082,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1982806304"/>
+        <c:crossAx val="1719500240"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1982806304"/>
+        <c:axId val="1719500240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647400692"/>
+        <c:crossAx val="311254528"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3291,17 +3291,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>m3_price_forecast_error!$D$3:$D$50</c:f>
+              <c:f>m3_price_forecast_error!$B$3:$B$50</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="827211891"/>
-        <c:axId val="643150183"/>
+        <c:axId val="702088145"/>
+        <c:axId val="1329457817"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="827211891"/>
+        <c:axId val="702088145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,10 +3353,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643150183"/>
+        <c:crossAx val="1329457817"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643150183"/>
+        <c:axId val="1329457817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="827211891"/>
+        <c:crossAx val="702088145"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3557,11 +3557,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="588280676"/>
-        <c:axId val="246392969"/>
+        <c:axId val="1513503807"/>
+        <c:axId val="1622896887"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="588280676"/>
+        <c:axId val="1513503807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -3614,10 +3614,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246392969"/>
+        <c:crossAx val="1622896887"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246392969"/>
+        <c:axId val="1622896887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588280676"/>
+        <c:crossAx val="1513503807"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3842,11 +3842,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1861062259"/>
-        <c:axId val="85534757"/>
+        <c:axId val="1736343150"/>
+        <c:axId val="1912798215"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861062259"/>
+        <c:axId val="1736343150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -3899,10 +3899,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85534757"/>
+        <c:crossAx val="1912798215"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85534757"/>
+        <c:axId val="1912798215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861062259"/>
+        <c:crossAx val="1736343150"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4099,11 +4099,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="325216784"/>
-        <c:axId val="1894579822"/>
+        <c:axId val="1959360237"/>
+        <c:axId val="196137850"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="325216784"/>
+        <c:axId val="1959360237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -4156,10 +4156,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894579822"/>
+        <c:crossAx val="196137850"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894579822"/>
+        <c:axId val="196137850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +4214,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325216784"/>
+        <c:crossAx val="1959360237"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4370,11 +4370,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="8783818"/>
-        <c:axId val="537955430"/>
+        <c:axId val="1767697126"/>
+        <c:axId val="1519030452"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8783818"/>
+        <c:axId val="1767697126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,10 +4426,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537955430"/>
+        <c:crossAx val="1519030452"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537955430"/>
+        <c:axId val="1519030452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4504,7 +4504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8783818"/>
+        <c:crossAx val="1767697126"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4665,11 +4665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="505122749"/>
-        <c:axId val="1186070633"/>
+        <c:axId val="983665625"/>
+        <c:axId val="189322060"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="505122749"/>
+        <c:axId val="983665625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4721,10 +4721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1186070633"/>
+        <c:crossAx val="189322060"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1186070633"/>
+        <c:axId val="189322060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505122749"/>
+        <c:crossAx val="983665625"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4984,11 +4984,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1020087307"/>
-        <c:axId val="269668915"/>
+        <c:axId val="696405619"/>
+        <c:axId val="1967563486"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1020087307"/>
+        <c:axId val="696405619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -5041,10 +5041,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269668915"/>
+        <c:crossAx val="1967563486"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269668915"/>
+        <c:axId val="1967563486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +5099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020087307"/>
+        <c:crossAx val="696405619"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5241,11 +5241,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1164365140"/>
-        <c:axId val="1110601533"/>
+        <c:axId val="453276886"/>
+        <c:axId val="1535009873"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1164365140"/>
+        <c:axId val="453276886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48.0"/>
@@ -5298,10 +5298,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110601533"/>
+        <c:crossAx val="1535009873"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1110601533"/>
+        <c:axId val="1535009873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5356,7 +5356,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1164365140"/>
+        <c:crossAx val="453276886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5506,11 +5506,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="974472161"/>
-        <c:axId val="916024646"/>
+        <c:axId val="358477289"/>
+        <c:axId val="1865522665"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="974472161"/>
+        <c:axId val="358477289"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5562,10 +5562,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916024646"/>
+        <c:crossAx val="1865522665"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="916024646"/>
+        <c:axId val="1865522665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5640,7 +5640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974472161"/>
+        <c:crossAx val="358477289"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5703,10 +5703,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10620375" cy="4181475"/>
     <xdr:graphicFrame>
@@ -6086,10 +6086,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8172450" cy="3533775"/>
     <xdr:graphicFrame>
